--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F11-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F11-Gp1ba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>F11</t>
   </si>
   <si>
@@ -88,13 +94,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.526486</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.5351386569441297</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5351386569441295</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.346352666666667</v>
+        <v>2.762460333333333</v>
       </c>
       <c r="N2">
-        <v>10.039058</v>
+        <v>8.287381</v>
       </c>
       <c r="O2">
-        <v>0.3139821979784092</v>
+        <v>0.2369432190408618</v>
       </c>
       <c r="P2">
-        <v>0.3139821979784092</v>
+        <v>0.2369432190408618</v>
       </c>
       <c r="Q2">
-        <v>0.5872692766875556</v>
+        <v>0.4847988970184444</v>
       </c>
       <c r="R2">
-        <v>5.285423490188</v>
+        <v>4.363190073166</v>
       </c>
       <c r="S2">
-        <v>0.3139821979784092</v>
+        <v>0.1267974760095455</v>
       </c>
       <c r="T2">
-        <v>0.3139821979784092</v>
+        <v>0.1267974760095455</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.526486</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.5351386569441297</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5351386569441295</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>12.922368</v>
       </c>
       <c r="O3">
-        <v>0.4041607795996257</v>
+        <v>0.3694614102513958</v>
       </c>
       <c r="P3">
-        <v>0.4041607795996257</v>
+        <v>0.3694614102513958</v>
       </c>
       <c r="Q3">
         <v>0.7559384265386666</v>
@@ -638,10 +638,10 @@
         <v>6.803445838847999</v>
       </c>
       <c r="S3">
-        <v>0.4041607795996257</v>
+        <v>0.197713082874616</v>
       </c>
       <c r="T3">
-        <v>0.4041607795996257</v>
+        <v>0.197713082874616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.526486</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.5351386569441297</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.5351386569441295</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.05776</v>
+        <v>1.776664666666667</v>
       </c>
       <c r="N4">
-        <v>3.17328</v>
+        <v>5.329994000000001</v>
       </c>
       <c r="O4">
-        <v>0.09924770124855603</v>
+        <v>0.1523890280691185</v>
       </c>
       <c r="P4">
-        <v>0.09924770124855603</v>
+        <v>0.1523890280691185</v>
       </c>
       <c r="Q4">
-        <v>0.1856319437866667</v>
+        <v>0.3117963578982223</v>
       </c>
       <c r="R4">
-        <v>1.67068749408</v>
+        <v>2.806167221084001</v>
       </c>
       <c r="S4">
-        <v>0.09924770124855603</v>
+        <v>0.08154925981392935</v>
       </c>
       <c r="T4">
-        <v>0.09924770124855603</v>
+        <v>0.08154925981392933</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.526486</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.5351386569441297</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5351386569441295</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.122709333333333</v>
+        <v>1.351364</v>
       </c>
       <c r="N5">
-        <v>3.368128</v>
+        <v>4.054092</v>
       </c>
       <c r="O5">
-        <v>0.105341779329557</v>
+        <v>0.1159099127659034</v>
       </c>
       <c r="P5">
-        <v>0.105341779329557</v>
+        <v>0.1159099127659034</v>
       </c>
       <c r="Q5">
-        <v>0.1970302486897778</v>
+        <v>0.2371580756346667</v>
       </c>
       <c r="R5">
-        <v>1.773272238208</v>
+        <v>2.134422680712</v>
       </c>
       <c r="S5">
-        <v>0.105341779329557</v>
+        <v>0.06202787504405679</v>
       </c>
       <c r="T5">
-        <v>0.105341779329557</v>
+        <v>0.06202787504405677</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,40 +794,660 @@
         <v>0.526486</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.5351386569441297</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.5351386569441295</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8235003333333334</v>
+        <v>1.460799</v>
       </c>
       <c r="N6">
-        <v>2.470501</v>
+        <v>4.382397</v>
       </c>
       <c r="O6">
-        <v>0.07726754184385208</v>
+        <v>0.1252964298727204</v>
       </c>
       <c r="P6">
-        <v>0.07726754184385208</v>
+        <v>0.1252964298727204</v>
       </c>
       <c r="Q6">
-        <v>0.1445204654984445</v>
+        <v>0.256363407438</v>
       </c>
       <c r="R6">
-        <v>1.300684189486</v>
+        <v>2.307270666942</v>
       </c>
       <c r="S6">
-        <v>0.07726754184385208</v>
+        <v>0.06705096320198192</v>
       </c>
       <c r="T6">
-        <v>0.07726754184385208</v>
+        <v>0.06705096320198191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1089446666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.326834</v>
+      </c>
+      <c r="I7">
+        <v>0.3322054295910578</v>
+      </c>
+      <c r="J7">
+        <v>0.3322054295910578</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.762460333333333</v>
+      </c>
+      <c r="N7">
+        <v>8.287381</v>
+      </c>
+      <c r="O7">
+        <v>0.2369432190408618</v>
+      </c>
+      <c r="P7">
+        <v>0.2369432190408618</v>
+      </c>
+      <c r="Q7">
+        <v>0.3009553201948889</v>
+      </c>
+      <c r="R7">
+        <v>2.708597881754</v>
+      </c>
+      <c r="S7">
+        <v>0.0787138238701576</v>
+      </c>
+      <c r="T7">
+        <v>0.07871382387015759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1089446666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.326834</v>
+      </c>
+      <c r="I8">
+        <v>0.3322054295910578</v>
+      </c>
+      <c r="J8">
+        <v>0.3322054295910578</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.307455999999999</v>
+      </c>
+      <c r="N8">
+        <v>12.922368</v>
+      </c>
+      <c r="O8">
+        <v>0.3694614102513958</v>
+      </c>
+      <c r="P8">
+        <v>0.3694614102513958</v>
+      </c>
+      <c r="Q8">
+        <v>0.4692743581013333</v>
+      </c>
+      <c r="R8">
+        <v>4.223469222912</v>
+      </c>
+      <c r="S8">
+        <v>0.122737086509883</v>
+      </c>
+      <c r="T8">
+        <v>0.122737086509883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1089446666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.326834</v>
+      </c>
+      <c r="I9">
+        <v>0.3322054295910578</v>
+      </c>
+      <c r="J9">
+        <v>0.3322054295910578</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.776664666666667</v>
+      </c>
+      <c r="N9">
+        <v>5.329994000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.1523890280691185</v>
+      </c>
+      <c r="P9">
+        <v>0.1523890280691185</v>
+      </c>
+      <c r="Q9">
+        <v>0.1935581398884445</v>
+      </c>
+      <c r="R9">
+        <v>1.742023258996</v>
+      </c>
+      <c r="S9">
+        <v>0.05062446253466528</v>
+      </c>
+      <c r="T9">
+        <v>0.05062446253466528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1089446666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.326834</v>
+      </c>
+      <c r="I10">
+        <v>0.3322054295910578</v>
+      </c>
+      <c r="J10">
+        <v>0.3322054295910578</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.351364</v>
+      </c>
+      <c r="N10">
+        <v>4.054092</v>
+      </c>
+      <c r="O10">
+        <v>0.1159099127659034</v>
+      </c>
+      <c r="P10">
+        <v>0.1159099127659034</v>
+      </c>
+      <c r="Q10">
+        <v>0.1472239005253334</v>
+      </c>
+      <c r="R10">
+        <v>1.325015104728</v>
+      </c>
+      <c r="S10">
+        <v>0.03850590236425899</v>
+      </c>
+      <c r="T10">
+        <v>0.03850590236425898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1089446666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.326834</v>
+      </c>
+      <c r="I11">
+        <v>0.3322054295910578</v>
+      </c>
+      <c r="J11">
+        <v>0.3322054295910578</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.460799</v>
+      </c>
+      <c r="N11">
+        <v>4.382397</v>
+      </c>
+      <c r="O11">
+        <v>0.1252964298727204</v>
+      </c>
+      <c r="P11">
+        <v>0.1252964298727204</v>
+      </c>
+      <c r="Q11">
+        <v>0.159146260122</v>
+      </c>
+      <c r="R11">
+        <v>1.432316341098</v>
+      </c>
+      <c r="S11">
+        <v>0.04162415431209293</v>
+      </c>
+      <c r="T11">
+        <v>0.04162415431209293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04350366666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.130511</v>
+      </c>
+      <c r="I12">
+        <v>0.1326559134648125</v>
+      </c>
+      <c r="J12">
+        <v>0.1326559134648125</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.762460333333333</v>
+      </c>
+      <c r="N12">
+        <v>8.287381</v>
+      </c>
+      <c r="O12">
+        <v>0.2369432190408618</v>
+      </c>
+      <c r="P12">
+        <v>0.2369432190408618</v>
+      </c>
+      <c r="Q12">
+        <v>0.1201771535212222</v>
+      </c>
+      <c r="R12">
+        <v>1.081594381691</v>
+      </c>
+      <c r="S12">
+        <v>0.03143191916115869</v>
+      </c>
+      <c r="T12">
+        <v>0.03143191916115868</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04350366666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.130511</v>
+      </c>
+      <c r="I13">
+        <v>0.1326559134648125</v>
+      </c>
+      <c r="J13">
+        <v>0.1326559134648125</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.307455999999999</v>
+      </c>
+      <c r="N13">
+        <v>12.922368</v>
+      </c>
+      <c r="O13">
+        <v>0.3694614102513958</v>
+      </c>
+      <c r="P13">
+        <v>0.3694614102513958</v>
+      </c>
+      <c r="Q13">
+        <v>0.1873901300053333</v>
+      </c>
+      <c r="R13">
+        <v>1.686511170048</v>
+      </c>
+      <c r="S13">
+        <v>0.04901124086689676</v>
+      </c>
+      <c r="T13">
+        <v>0.04901124086689676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.04350366666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.130511</v>
+      </c>
+      <c r="I14">
+        <v>0.1326559134648125</v>
+      </c>
+      <c r="J14">
+        <v>0.1326559134648125</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.776664666666667</v>
+      </c>
+      <c r="N14">
+        <v>5.329994000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.1523890280691185</v>
+      </c>
+      <c r="P14">
+        <v>0.1523890280691185</v>
+      </c>
+      <c r="Q14">
+        <v>0.07729142743711112</v>
+      </c>
+      <c r="R14">
+        <v>0.6956228469340001</v>
+      </c>
+      <c r="S14">
+        <v>0.02021530572052387</v>
+      </c>
+      <c r="T14">
+        <v>0.02021530572052387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.04350366666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.130511</v>
+      </c>
+      <c r="I15">
+        <v>0.1326559134648125</v>
+      </c>
+      <c r="J15">
+        <v>0.1326559134648125</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.351364</v>
+      </c>
+      <c r="N15">
+        <v>4.054092</v>
+      </c>
+      <c r="O15">
+        <v>0.1159099127659034</v>
+      </c>
+      <c r="P15">
+        <v>0.1159099127659034</v>
+      </c>
+      <c r="Q15">
+        <v>0.05878928900133333</v>
+      </c>
+      <c r="R15">
+        <v>0.5291036010119999</v>
+      </c>
+      <c r="S15">
+        <v>0.01537613535758765</v>
+      </c>
+      <c r="T15">
+        <v>0.01537613535758765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04350366666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.130511</v>
+      </c>
+      <c r="I16">
+        <v>0.1326559134648125</v>
+      </c>
+      <c r="J16">
+        <v>0.1326559134648125</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.460799</v>
+      </c>
+      <c r="N16">
+        <v>4.382397</v>
+      </c>
+      <c r="O16">
+        <v>0.1252964298727204</v>
+      </c>
+      <c r="P16">
+        <v>0.1252964298727204</v>
+      </c>
+      <c r="Q16">
+        <v>0.06355011276299999</v>
+      </c>
+      <c r="R16">
+        <v>0.571951014867</v>
+      </c>
+      <c r="S16">
+        <v>0.01662131235864555</v>
+      </c>
+      <c r="T16">
+        <v>0.01662131235864555</v>
       </c>
     </row>
   </sheetData>
